--- a/mine/周报03/code/3FC/LR_3/record_LR_3.xlsx
+++ b/mine/周报03/code/3FC/LR_3/record_LR_3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Deeplearning\AlexNet\02way\diagram\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\DeepLearning\mine\周报03\code\3FC\LR_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6AF4D3B0-2B2E-4227-A68E-EFC9190E2DA2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E0B7B3FB-231A-4F22-9D90-4A479B699D19}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15420" windowHeight="6270" xr2:uid="{42560F3D-78A6-4B22-925A-AC4B06766ABB}"/>
   </bookViews>
@@ -1632,6 +1632,39 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Top1 and Top5 in Train and Test</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6084,7 +6117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E22510F-F1D3-4AE9-A63D-C94056C4897D}">
   <dimension ref="A1:F165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
